--- a/Data/Upbit_NEOBTC_days_1.xlsx
+++ b/Data/Upbit_NEOBTC_days_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1311">
   <si>
     <t>Time</t>
   </si>
@@ -3120,6 +3120,834 @@
   </si>
   <si>
     <t>2018-03-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T09:00:00+09:00</t>
   </si>
 </sst>
 </file>
@@ -3455,7 +4283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G515"/>
+  <dimension ref="A1:G653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15299,13 +16127,3187 @@
         <v>0.00799981</v>
       </c>
       <c r="E515" t="n">
-        <v>0.00767</v>
+        <v>0.0076</v>
       </c>
       <c r="F515" t="n">
-        <v>0.007718</v>
+        <v>0.00771408</v>
       </c>
       <c r="G515" t="n">
-        <v>14381.54134057</v>
+        <v>42221.51124099</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.00773898</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.00784993</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.00754012</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.00764301</v>
+      </c>
+      <c r="G516" t="n">
+        <v>28538.5042913</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.00759622</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.00780886</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.00742694</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.00771765</v>
+      </c>
+      <c r="G517" t="n">
+        <v>25963.79620111</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.00771765</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.00776</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.007028</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.00725</v>
+      </c>
+      <c r="G518" t="n">
+        <v>53322.68604339</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.00725</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.00674849</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.00713526</v>
+      </c>
+      <c r="G519" t="n">
+        <v>60552.34513404</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.007093</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.00743231</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.00707777</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.00719012</v>
+      </c>
+      <c r="G520" t="n">
+        <v>27589.00963768</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.00719665</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.007449</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0.00699028</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.00727045</v>
+      </c>
+      <c r="G521" t="n">
+        <v>48704.39545436</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.00727045</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.00748699</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.00713</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.0073074</v>
+      </c>
+      <c r="G522" t="n">
+        <v>49603.03386752</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.00733623</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.00746332</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.007133</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.00724844</v>
+      </c>
+      <c r="G523" t="n">
+        <v>30622.57093865</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.00720163</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.0072502</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.00691</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.00694999</v>
+      </c>
+      <c r="G524" t="n">
+        <v>42244.3236258</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.00694999</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.007104</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.00681301</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.00694321</v>
+      </c>
+      <c r="G525" t="n">
+        <v>37129.28732033</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.00695564</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.00725</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.00687</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.00719122</v>
+      </c>
+      <c r="G526" t="n">
+        <v>45773.48580734</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.00721001</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.00724543</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.00684001</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.00694649</v>
+      </c>
+      <c r="G527" t="n">
+        <v>41022.19116499</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.006984</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.00702571</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.00693699</v>
+      </c>
+      <c r="G528" t="n">
+        <v>47991.49699925</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.006945</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.006965</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.00672204</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.00678078</v>
+      </c>
+      <c r="G529" t="n">
+        <v>27325.94660013</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.00677</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.00690993</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.00670011</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.00670011</v>
+      </c>
+      <c r="G530" t="n">
+        <v>22270.28773098</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.0067001</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.00702571</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.00668501</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.00702</v>
+      </c>
+      <c r="G531" t="n">
+        <v>20276.97410529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.00702</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.00697659</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="G532" t="n">
+        <v>197585.48568111</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.00783</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.00739429</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.00772999</v>
+      </c>
+      <c r="G533" t="n">
+        <v>45473.70278504</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.007699</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.008609</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.0076202</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.00839</v>
+      </c>
+      <c r="G534" t="n">
+        <v>107387.23039746</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.00839</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.008968159999999999</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.00784368</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.00847417</v>
+      </c>
+      <c r="G535" t="n">
+        <v>129394.73741233</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.00847417</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.0085231</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.007899990000000001</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.007902879999999999</v>
+      </c>
+      <c r="G536" t="n">
+        <v>52011.1268894</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.007902879999999999</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.00814</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.0078709</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.008009</v>
+      </c>
+      <c r="G537" t="n">
+        <v>22940.03500162</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.008009</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.00799936</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.008475740000000001</v>
+      </c>
+      <c r="G538" t="n">
+        <v>35507.16781161</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.008475740000000001</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.00849988</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.00813299</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.00833122</v>
+      </c>
+      <c r="G539" t="n">
+        <v>25316.24670398</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.00830622</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.008615009999999999</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.00820246</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.008359989999999999</v>
+      </c>
+      <c r="G540" t="n">
+        <v>38370.17949185</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.00896775</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.00831251</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.00893599</v>
+      </c>
+      <c r="G541" t="n">
+        <v>74620.5514173</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.008604000000000001</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.00891312</v>
+      </c>
+      <c r="G542" t="n">
+        <v>85495.07121665</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.00891314</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.00912</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.00878264</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.0089138</v>
+      </c>
+      <c r="G543" t="n">
+        <v>46126.77980561</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.0089138</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.009027</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.008196470000000001</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.008350150000000001</v>
+      </c>
+      <c r="G544" t="n">
+        <v>52428.50514171</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.00841254</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.00865351</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.0082401</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.008370000000000001</v>
+      </c>
+      <c r="G545" t="n">
+        <v>31004.09873308</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.008370000000000001</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.00878951</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.00835729</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.00849021</v>
+      </c>
+      <c r="G546" t="n">
+        <v>47739.45953204</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.008563019999999999</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.008954999999999999</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.008477</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.00855177</v>
+      </c>
+      <c r="G547" t="n">
+        <v>55838.54729497</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.00855177</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.00855735</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.00779712</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.00802926</v>
+      </c>
+      <c r="G548" t="n">
+        <v>67351.6028739</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.008039340000000001</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.0079819</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.008288709999999999</v>
+      </c>
+      <c r="G549" t="n">
+        <v>35644.68459435</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.008288709999999999</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.00832685</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.008085999999999999</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.00810365</v>
+      </c>
+      <c r="G550" t="n">
+        <v>22445.01031542</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.008107349999999999</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.0083994</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.00805</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.00820765</v>
+      </c>
+      <c r="G551" t="n">
+        <v>23358.2665045</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.00820765</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.009857370000000001</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.008172789999999999</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.0096355</v>
+      </c>
+      <c r="G552" t="n">
+        <v>176455.392258</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.0096355</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.01025132</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.008912</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.009072429999999999</v>
+      </c>
+      <c r="G553" t="n">
+        <v>144690.24789652</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.009069260000000001</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.00936</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.008754</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.009328670000000001</v>
+      </c>
+      <c r="G554" t="n">
+        <v>49158.85548738</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.009285389999999999</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.00940474</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.009058999999999999</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.009211</v>
+      </c>
+      <c r="G555" t="n">
+        <v>31954.66266668</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.009197179999999999</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.0094605</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.00888896</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.008966500000000001</v>
+      </c>
+      <c r="G556" t="n">
+        <v>49554.25100016</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.008966500000000001</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.00906</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.008548409999999999</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.00870011</v>
+      </c>
+      <c r="G557" t="n">
+        <v>26438.51216434</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.00869605</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.008749099999999999</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.008540000000000001</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.008566610000000001</v>
+      </c>
+      <c r="G558" t="n">
+        <v>22499.55754749</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.00856</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.00892451</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.008449999999999999</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.0086783</v>
+      </c>
+      <c r="G559" t="n">
+        <v>27187.29580161</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.0086783</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.00869032</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.008229999999999999</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.008437429999999999</v>
+      </c>
+      <c r="G560" t="n">
+        <v>25273.24758294</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.00843005</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.00856843</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.008292020000000001</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.008351549999999999</v>
+      </c>
+      <c r="G561" t="n">
+        <v>17689.62501419</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.008351549999999999</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.00838829</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.00805502</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.00815011</v>
+      </c>
+      <c r="G562" t="n">
+        <v>18284.65421074</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.008152609999999999</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.00822</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.00772568</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.00772568</v>
+      </c>
+      <c r="G563" t="n">
+        <v>22535.99559277</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.00773021</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.007865199999999999</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.00710133</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.00748581</v>
+      </c>
+      <c r="G564" t="n">
+        <v>56751.37263123</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.00756831</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.007819889999999999</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.00715001</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.007635</v>
+      </c>
+      <c r="G565" t="n">
+        <v>27348.82544595</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="A566" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.007635</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.00797</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.00751001</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.00779765</v>
+      </c>
+      <c r="G566" t="n">
+        <v>25293.1132368</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="A567" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.00774661</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.00752002</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.00764572</v>
+      </c>
+      <c r="G567" t="n">
+        <v>28134.19903981</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="A568" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.00763</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.007365</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="G568" t="n">
+        <v>18467.86207867</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="A569" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.0075099</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.00727333</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.00739998</v>
+      </c>
+      <c r="G569" t="n">
+        <v>24769.07945328</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="A570" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.00739998</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.007525</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.00702712</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.007145</v>
+      </c>
+      <c r="G570" t="n">
+        <v>20433.89253252</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.007145</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.00734101</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.00723599</v>
+      </c>
+      <c r="G571" t="n">
+        <v>15617.23368894</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="A572" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.00723599</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.00730266</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.00710325</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.00717925</v>
+      </c>
+      <c r="G572" t="n">
+        <v>6171.46111439</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.00716212</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.00750995</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.00713708</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.00746005</v>
+      </c>
+      <c r="G573" t="n">
+        <v>10215.68620281</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
+      <c r="A574" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.0074799</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.00775</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.00728</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.00743291</v>
+      </c>
+      <c r="G574" t="n">
+        <v>28805.44028478</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
+      <c r="A575" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.00741968</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.00741968</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.00711813</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.00715853</v>
+      </c>
+      <c r="G575" t="n">
+        <v>17767.9720755</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="A576" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.00714999</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.00722999</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.00689459</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.00692109</v>
+      </c>
+      <c r="G576" t="n">
+        <v>32716.40961714</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
+      <c r="A577" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.00692109</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.00724942</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.0068501</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.0072494</v>
+      </c>
+      <c r="G577" t="n">
+        <v>23433.81987851</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7">
+      <c r="A578" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.0072494</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.0073942</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.0070127</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.00704306</v>
+      </c>
+      <c r="G578" t="n">
+        <v>21191.95386689</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
+      <c r="A579" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.00704342</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.00692592</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="G579" t="n">
+        <v>9794.121533629999</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
+      <c r="A580" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.007184</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.00701521</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.007184</v>
+      </c>
+      <c r="G580" t="n">
+        <v>8158.77635268</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
+      <c r="A581" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.00717</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.00719</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.00672</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.00673</v>
+      </c>
+      <c r="G581" t="n">
+        <v>21586.72012005</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
+      <c r="A582" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.00674374</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.00716552</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.00673</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="G582" t="n">
+        <v>14741.93095815</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
+      <c r="A583" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.007114</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.00685386</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.00693813</v>
+      </c>
+      <c r="G583" t="n">
+        <v>11456.57290997</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
+      <c r="A584" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.006938</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.00716507</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.00691144</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.00706203</v>
+      </c>
+      <c r="G584" t="n">
+        <v>17433.80852625</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
+      <c r="A585" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.00706203</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.00742</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.0070612</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.007399</v>
+      </c>
+      <c r="G585" t="n">
+        <v>19374.55027303</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
+      <c r="A586" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.007399</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.00748958</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.00733</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.00744467</v>
+      </c>
+      <c r="G586" t="n">
+        <v>9934.104028170001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="A587" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.00740494</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.0072606</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.00732323</v>
+      </c>
+      <c r="G587" t="n">
+        <v>11147.97590971</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
+      <c r="A588" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.0072854</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.00739163</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.00701104</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.00710501</v>
+      </c>
+      <c r="G588" t="n">
+        <v>17916.19421939</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
+      <c r="A589" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.00710735</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.00721</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.00701212</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.00711902</v>
+      </c>
+      <c r="G589" t="n">
+        <v>11616.03316838</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
+      <c r="A590" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.00711903</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.00717092</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.00702533</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.00703322</v>
+      </c>
+      <c r="G590" t="n">
+        <v>11600.70066644</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.00704275</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.00712305</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.00693649</v>
+      </c>
+      <c r="G591" t="n">
+        <v>12312.73897773</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
+      <c r="A592" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.00693649</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.00700634</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.00681101</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.00687587</v>
+      </c>
+      <c r="G592" t="n">
+        <v>11142.16351654</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
+      <c r="A593" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.00687587</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.00697618</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.00679999</v>
+      </c>
+      <c r="G593" t="n">
+        <v>8403.23433583</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
+      <c r="A594" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.00679998</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.00656777</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.00668499</v>
+      </c>
+      <c r="G594" t="n">
+        <v>16089.34284823</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
+      <c r="A595" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.00672584</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.00673</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.00634</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.00660068</v>
+      </c>
+      <c r="G595" t="n">
+        <v>23243.3280179</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
+      <c r="A596" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.00663449</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.00682999</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.00623</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.00627717</v>
+      </c>
+      <c r="G596" t="n">
+        <v>24534.70572081</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7">
+      <c r="A597" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.00627717</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.00634588</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.00581</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="G597" t="n">
+        <v>37442.800645</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7">
+      <c r="A598" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.00605463</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.00625819</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.00614098</v>
+      </c>
+      <c r="G598" t="n">
+        <v>26237.8190283</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7">
+      <c r="A599" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.0061228</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.00614999</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.00592</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.005935</v>
+      </c>
+      <c r="G599" t="n">
+        <v>13832.92883669</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
+      <c r="A600" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.005935</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.00598</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.00571428</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.00587265</v>
+      </c>
+      <c r="G600" t="n">
+        <v>9835.60820225</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
+      <c r="A601" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.00587265</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.00607</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.00576007</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.00600278</v>
+      </c>
+      <c r="G601" t="n">
+        <v>9456.344107680001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
+      <c r="A602" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.00596</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.00600287</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.00575181</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.00585885</v>
+      </c>
+      <c r="G602" t="n">
+        <v>11666.3318976</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
+      <c r="A603" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.00605</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.00588238</v>
+      </c>
+      <c r="G603" t="n">
+        <v>11720.55043447</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
+      <c r="A604" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.00592755</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.00593366</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.00567621</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.00574524</v>
+      </c>
+      <c r="G604" t="n">
+        <v>15485.94568296</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
+      <c r="A605" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.00577699</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.00583521</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.00554484</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.00559808</v>
+      </c>
+      <c r="G605" t="n">
+        <v>16582.55120785</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
+      <c r="A606" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.00559808</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.0056257</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.0053564</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.005472</v>
+      </c>
+      <c r="G606" t="n">
+        <v>16970.24932346</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
+      <c r="A607" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.00546833</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0.00552377</v>
+      </c>
+      <c r="G607" t="n">
+        <v>12213.97649659</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
+      <c r="A608" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.00552377</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.00553773</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.00508</v>
+      </c>
+      <c r="G608" t="n">
+        <v>38472.04740087</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7">
+      <c r="A609" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.00508</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.00522521</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.00500959</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.005059</v>
+      </c>
+      <c r="G609" t="n">
+        <v>13377.14316968</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7">
+      <c r="A610" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.00505988</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.00513059</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.00496601</v>
+      </c>
+      <c r="G610" t="n">
+        <v>24236.38025467</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7">
+      <c r="A611" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.00501</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.00483794</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.0049386</v>
+      </c>
+      <c r="G611" t="n">
+        <v>17419.98931033</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7">
+      <c r="A612" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.0049386</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.00497595</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.0047921</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.00480008</v>
+      </c>
+      <c r="G612" t="n">
+        <v>17709.81459241</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7">
+      <c r="A613" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.00483012</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.00485715</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.00464202</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.00476076</v>
+      </c>
+      <c r="G613" t="n">
+        <v>24879.71228771</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7">
+      <c r="A614" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.0047952</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.00497999</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.00468333</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.00480831</v>
+      </c>
+      <c r="G614" t="n">
+        <v>20116.50567427</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
+      <c r="A615" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.00482979</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.00494839</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.00491503</v>
+      </c>
+      <c r="G615" t="n">
+        <v>18457.17527976</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
+      <c r="A616" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.00494358</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.00563741</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.00490574</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.00545015</v>
+      </c>
+      <c r="G616" t="n">
+        <v>54596.01617746</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
+      <c r="A617" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.00548949</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.00580942</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.00540942</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="G617" t="n">
+        <v>47673.96045312</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
+      <c r="A618" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.00552136</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.00636646</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.005415</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.0061501</v>
+      </c>
+      <c r="G618" t="n">
+        <v>108282.8923949</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
+      <c r="A619" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.00613549</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.0065218</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.0060079</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.0061508</v>
+      </c>
+      <c r="G619" t="n">
+        <v>61653.3502569</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
+      <c r="A620" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.00616</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.00619034</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.00562207</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.00570028</v>
+      </c>
+      <c r="G620" t="n">
+        <v>35787.73599092</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
+      <c r="A621" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.00570028</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.00573815</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.00556016</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.00572998</v>
+      </c>
+      <c r="G621" t="n">
+        <v>15940.97754945</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
+      <c r="A622" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.0057029</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.00609898</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.00568828</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.00583011</v>
+      </c>
+      <c r="G622" t="n">
+        <v>31262.30064327</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
+      <c r="A623" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.00579622</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.00583803</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.00545504</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.00545504</v>
+      </c>
+      <c r="G623" t="n">
+        <v>20634.33508486</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
+      <c r="A624" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.00545504</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.00550994</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.00517845</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.00530334</v>
+      </c>
+      <c r="G624" t="n">
+        <v>28935.68560569</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="A625" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.005275</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.005407</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0.00507976</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.00528178</v>
+      </c>
+      <c r="G625" t="n">
+        <v>17597.66940709</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
+      <c r="A626" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.00529001</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.00529001</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.00513533</v>
+      </c>
+      <c r="G626" t="n">
+        <v>15784.06063027</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
+      <c r="A627" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.00512396</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.00539564</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.00509961</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.00532824</v>
+      </c>
+      <c r="G627" t="n">
+        <v>21683.83688112</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="A628" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.00532824</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.00536542</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0.00509435</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.00521</v>
+      </c>
+      <c r="G628" t="n">
+        <v>14765.62254548</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="A629" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.00519215</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.00532648</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0.005127</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.00529747</v>
+      </c>
+      <c r="G629" t="n">
+        <v>10656.58857575</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
+      <c r="A630" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.00526991</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.005555</v>
+      </c>
+      <c r="E630" t="n">
+        <v>0.00519844</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.00547207</v>
+      </c>
+      <c r="G630" t="n">
+        <v>21176.03654445</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
+      <c r="A631" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.00547207</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.00558018</v>
+      </c>
+      <c r="E631" t="n">
+        <v>0.0053208</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.00537692</v>
+      </c>
+      <c r="G631" t="n">
+        <v>29011.68129758</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="A632" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.00534938</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.00539291</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0.00504313</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="G632" t="n">
+        <v>33992.69049753</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
+      <c r="A633" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.00511099</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0.00477</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.00483745</v>
+      </c>
+      <c r="G633" t="n">
+        <v>21596.14904033</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="A634" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.00483691</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.004837</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.00451338</v>
+      </c>
+      <c r="G634" t="n">
+        <v>24324.56653847</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
+      <c r="A635" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.00451338</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.00474098</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.00408001</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.00462999</v>
+      </c>
+      <c r="G635" t="n">
+        <v>27054.34442976</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
+      <c r="A636" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.00461</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.00464503</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.00445001</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.00448107</v>
+      </c>
+      <c r="G636" t="n">
+        <v>12224.86335811</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="A637" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.00448107</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.004518</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.0041512</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.00415518</v>
+      </c>
+      <c r="G637" t="n">
+        <v>21855.30990722</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
+      <c r="A638" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.00415518</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.00432677</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0.003935</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.0040379</v>
+      </c>
+      <c r="G638" t="n">
+        <v>36725.70473171</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="A639" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.00400054</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.00423816</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.00400054</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.00418598</v>
+      </c>
+      <c r="G639" t="n">
+        <v>21956.48149296</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
+      <c r="A640" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.004188</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.00429774</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0.004144</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.00419595</v>
+      </c>
+      <c r="G640" t="n">
+        <v>23348.6704764</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.00418194</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.00419999</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.00404</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="G641" t="n">
+        <v>9448.02763418</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.00413</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.004016</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.00413</v>
+      </c>
+      <c r="G642" t="n">
+        <v>17182.33311206</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.00413</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.00415662</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.00403049</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.00405347</v>
+      </c>
+      <c r="G643" t="n">
+        <v>7333.09505582</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.0040525</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.00408363</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.00384659</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.00391854</v>
+      </c>
+      <c r="G644" t="n">
+        <v>15519.84581062</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.00389377</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.00393996</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.00381224</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.00385952</v>
+      </c>
+      <c r="G645" t="n">
+        <v>25771.15053529</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.00385696</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.00400076</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.00378452</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.00392514</v>
+      </c>
+      <c r="G646" t="n">
+        <v>13116.53367254</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.00392514</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.00393502</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.0036907</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.00373333</v>
+      </c>
+      <c r="G647" t="n">
+        <v>14291.2544942</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.00373332</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.00378899</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.00375999</v>
+      </c>
+      <c r="G648" t="n">
+        <v>26823.85548293</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.00376777</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.00384999</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.00370001</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.00379441</v>
+      </c>
+      <c r="G649" t="n">
+        <v>10988.87011052</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.00381901</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.00398393</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.00378808</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.00390081</v>
+      </c>
+      <c r="G650" t="n">
+        <v>7294.76754273</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.00392495</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.00398393</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.003757</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.00378033</v>
+      </c>
+      <c r="G651" t="n">
+        <v>8889.0978419</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.00378026</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.00388</v>
+      </c>
+      <c r="E652" t="n">
+        <v>0.00367626</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.00372281</v>
+      </c>
+      <c r="G652" t="n">
+        <v>17657.54979602</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.0037228</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.00374357</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.00351377</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.00359044</v>
+      </c>
+      <c r="G653" t="n">
+        <v>16298.71934171</v>
       </c>
     </row>
   </sheetData>
